--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H2">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I2">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J2">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="N2">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="O2">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="P2">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="Q2">
-        <v>806.4706884762314</v>
+        <v>397.1229509024603</v>
       </c>
       <c r="R2">
-        <v>3225.882753904926</v>
+        <v>1588.491803609841</v>
       </c>
       <c r="S2">
-        <v>0.03550375536721354</v>
+        <v>0.06379656522399765</v>
       </c>
       <c r="T2">
-        <v>0.02716165398862789</v>
+        <v>0.04904205671140949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H3">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I3">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J3">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>71.38371599999999</v>
       </c>
       <c r="O3">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="P3">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="Q3">
-        <v>913.4552258758439</v>
+        <v>383.870251504818</v>
       </c>
       <c r="R3">
-        <v>5480.731355255063</v>
+        <v>2303.221509028908</v>
       </c>
       <c r="S3">
-        <v>0.0402136014883256</v>
+        <v>0.06166756034126705</v>
       </c>
       <c r="T3">
-        <v>0.04614728433507383</v>
+        <v>0.07110815404149061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H4">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I4">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J4">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="N4">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="O4">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="P4">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="Q4">
-        <v>278.52830182717</v>
+        <v>81.37281528116</v>
       </c>
       <c r="R4">
-        <v>1671.16981096302</v>
+        <v>488.2368916869601</v>
       </c>
       <c r="S4">
-        <v>0.01226182281912991</v>
+        <v>0.01307228933947941</v>
       </c>
       <c r="T4">
-        <v>0.01407110537624828</v>
+        <v>0.01507350637648946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H5">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I5">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J5">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="N5">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="O5">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="P5">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="Q5">
-        <v>7257.375855319787</v>
+        <v>1191.717350893144</v>
       </c>
       <c r="R5">
-        <v>29029.50342127915</v>
+        <v>4766.869403572576</v>
       </c>
       <c r="S5">
-        <v>0.319495922985166</v>
+        <v>0.191445680820139</v>
       </c>
       <c r="T5">
-        <v>0.2444259099113285</v>
+        <v>0.1471692073541906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H6">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I6">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J6">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="N6">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="O6">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="P6">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="Q6">
-        <v>594.64707880456</v>
+        <v>54.5593683101935</v>
       </c>
       <c r="R6">
-        <v>3567.88247282736</v>
+        <v>327.356209861161</v>
       </c>
       <c r="S6">
-        <v>0.02617851425647627</v>
+        <v>0.008764792594010225</v>
       </c>
       <c r="T6">
-        <v>0.03004126206438157</v>
+        <v>0.01010658145818566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H7">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I7">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J7">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="N7">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="O7">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="P7">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="Q7">
-        <v>262.9481364204919</v>
+        <v>102.566706152066</v>
       </c>
       <c r="R7">
-        <v>1577.688818522952</v>
+        <v>615.4002369123959</v>
       </c>
       <c r="S7">
-        <v>0.01157592761043415</v>
+        <v>0.01647702189956794</v>
       </c>
       <c r="T7">
-        <v>0.01328400349906533</v>
+        <v>0.01899946430336468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I8">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J8">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="N8">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="O8">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="P8">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="Q8">
-        <v>66.27457056856501</v>
+        <v>77.65798710019502</v>
       </c>
       <c r="R8">
-        <v>397.64742341139</v>
+        <v>465.94792260117</v>
       </c>
       <c r="S8">
-        <v>0.002917646201102833</v>
+        <v>0.01247551376203089</v>
       </c>
       <c r="T8">
-        <v>0.003348156938157557</v>
+        <v>0.01438537132696632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I9">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J9">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>71.38371599999999</v>
       </c>
       <c r="O9">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="P9">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="Q9">
         <v>75.06640190844001</v>
@@ -1013,10 +1013,10 @@
         <v>675.59761717596</v>
       </c>
       <c r="S9">
-        <v>0.003304694402086424</v>
+        <v>0.01205918367246134</v>
       </c>
       <c r="T9">
-        <v>0.005688473547608586</v>
+        <v>0.02085795883890785</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I10">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J10">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="N10">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="O10">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="P10">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="Q10">
-        <v>22.8890446467</v>
+        <v>15.9125757528</v>
       </c>
       <c r="R10">
-        <v>206.0014018203</v>
+        <v>143.2131817752</v>
       </c>
       <c r="S10">
-        <v>0.00100765849687743</v>
+        <v>0.002556305735008124</v>
       </c>
       <c r="T10">
-        <v>0.00173451399950669</v>
+        <v>0.004421470080286189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I11">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J11">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="N11">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="O11">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="P11">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="Q11">
-        <v>596.4004335666151</v>
+        <v>233.0421106421251</v>
       </c>
       <c r="R11">
-        <v>3578.40260139969</v>
+        <v>1398.25266385275</v>
       </c>
       <c r="S11">
-        <v>0.02625570327206413</v>
+        <v>0.03743748926556011</v>
       </c>
       <c r="T11">
-        <v>0.03012984063775086</v>
+        <v>0.04316873797001262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I12">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J12">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="N12">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="O12">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="P12">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="Q12">
-        <v>48.86721904560002</v>
+        <v>10.66916608773</v>
       </c>
       <c r="R12">
-        <v>439.8049714104001</v>
+        <v>96.02249478957002</v>
       </c>
       <c r="S12">
-        <v>0.002151311653680957</v>
+        <v>0.001713968302901513</v>
       </c>
       <c r="T12">
-        <v>0.003703119848812626</v>
+        <v>0.002964535683684116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I13">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J13">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="N13">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="O13">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="P13">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="Q13">
-        <v>21.60868965492</v>
+        <v>20.05707281628</v>
       </c>
       <c r="R13">
-        <v>194.47820689428</v>
+        <v>180.51365534652</v>
       </c>
       <c r="S13">
-        <v>0.0009512926412289922</v>
+        <v>0.003222106280229976</v>
       </c>
       <c r="T13">
-        <v>0.001637489694130062</v>
+        <v>0.005573060498373362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H14">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I14">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J14">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="N14">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="O14">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="P14">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="Q14">
-        <v>62.25518873699266</v>
+        <v>76.6727787909645</v>
       </c>
       <c r="R14">
-        <v>373.5311324219559</v>
+        <v>460.036672745787</v>
       </c>
       <c r="S14">
-        <v>0.002740698481471268</v>
+        <v>0.01231724311558193</v>
       </c>
       <c r="T14">
-        <v>0.003145099852294424</v>
+        <v>0.01420287126622681</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H15">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I15">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J15">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>71.38371599999999</v>
       </c>
       <c r="O15">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="P15">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="Q15">
-        <v>70.513818173776</v>
+        <v>74.11407175328399</v>
       </c>
       <c r="R15">
-        <v>634.6243635639839</v>
+        <v>667.0266457795559</v>
       </c>
       <c r="S15">
-        <v>0.003104273206978066</v>
+        <v>0.01190619479906552</v>
       </c>
       <c r="T15">
-        <v>0.005343482293338843</v>
+        <v>0.02059334427537084</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H16">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I16">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J16">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="N16">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="O16">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="P16">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="Q16">
-        <v>21.50088310290222</v>
+        <v>15.71070080808</v>
       </c>
       <c r="R16">
-        <v>193.50794792612</v>
+        <v>141.39630727272</v>
       </c>
       <c r="S16">
-        <v>0.0009465466070525312</v>
+        <v>0.00252387515387789</v>
       </c>
       <c r="T16">
-        <v>0.001629320197473488</v>
+        <v>0.004365377085543847</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H17">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I17">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J17">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="N17">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="O17">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="P17">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="Q17">
-        <v>560.2302849492127</v>
+        <v>230.0856211375875</v>
       </c>
       <c r="R17">
-        <v>3361.381709695276</v>
+        <v>1380.513726825525</v>
       </c>
       <c r="S17">
-        <v>0.02466336256277639</v>
+        <v>0.03696253843463566</v>
       </c>
       <c r="T17">
-        <v>0.02830254348578732</v>
+        <v>0.0426210776335146</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H18">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I18">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J18">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="N18">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="O18">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="P18">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="Q18">
-        <v>45.90354820312889</v>
+        <v>10.533811677003</v>
       </c>
       <c r="R18">
-        <v>413.13193382816</v>
+        <v>94.804305093027</v>
       </c>
       <c r="S18">
-        <v>0.002020840148536925</v>
+        <v>0.00169222403837921</v>
       </c>
       <c r="T18">
-        <v>0.003478535177606741</v>
+        <v>0.002926926091964881</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H19">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I19">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J19">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="N19">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="O19">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="P19">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="Q19">
-        <v>20.29817834027911</v>
+        <v>19.802618695908</v>
       </c>
       <c r="R19">
-        <v>182.683605062512</v>
+        <v>178.223568263172</v>
       </c>
       <c r="S19">
-        <v>0.0008935991952230536</v>
+        <v>0.003181229018288964</v>
       </c>
       <c r="T19">
-        <v>0.001538180166063574</v>
+        <v>0.005502357847997455</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H20">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I20">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J20">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="N20">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="O20">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="P20">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="Q20">
-        <v>327.9348215493603</v>
+        <v>406.9757601683435</v>
       </c>
       <c r="R20">
-        <v>1311.739286197441</v>
+        <v>1627.903040673374</v>
       </c>
       <c r="S20">
-        <v>0.01443687643834617</v>
+        <v>0.06537938834601086</v>
       </c>
       <c r="T20">
-        <v>0.01104473142176533</v>
+        <v>0.0502588134606381</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H21">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I21">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J21">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>71.38371599999999</v>
       </c>
       <c r="O21">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="P21">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="Q21">
-        <v>371.437896964254</v>
+        <v>393.394254996252</v>
       </c>
       <c r="R21">
-        <v>2228.627381785524</v>
+        <v>2360.365529977512</v>
       </c>
       <c r="S21">
-        <v>0.01635203909623531</v>
+        <v>0.06319756183967978</v>
       </c>
       <c r="T21">
-        <v>0.01876484994389977</v>
+        <v>0.07287238115913192</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H22">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I22">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J22">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="N22">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="O22">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="P22">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="Q22">
-        <v>113.2578409374283</v>
+        <v>83.39171352557334</v>
       </c>
       <c r="R22">
-        <v>679.54704562457</v>
+        <v>500.3502811534401</v>
       </c>
       <c r="S22">
-        <v>0.004986019622931094</v>
+        <v>0.01339661905459065</v>
       </c>
       <c r="T22">
-        <v>0.00572172739381367</v>
+        <v>0.01544748723797864</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H23">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I23">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J23">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="N23">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="O23">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="P23">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="Q23">
-        <v>2951.063553875303</v>
+        <v>1221.284425096513</v>
       </c>
       <c r="R23">
-        <v>11804.25421550121</v>
+        <v>4885.137700386051</v>
       </c>
       <c r="S23">
-        <v>0.1299164867204923</v>
+        <v>0.1961955392043282</v>
       </c>
       <c r="T23">
-        <v>0.09939080030330685</v>
+        <v>0.1508205453757703</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H24">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I24">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J24">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="N24">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="O24">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="P24">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="Q24">
-        <v>241.8010802612934</v>
+        <v>55.91301218397567</v>
       </c>
       <c r="R24">
-        <v>1450.80648156776</v>
+        <v>335.478073103854</v>
       </c>
       <c r="S24">
-        <v>0.01064495774464585</v>
+        <v>0.008982251266412717</v>
       </c>
       <c r="T24">
-        <v>0.01221566518780042</v>
+        <v>0.01035733055040339</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H25">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I25">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J25">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="N25">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="O25">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="P25">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="Q25">
-        <v>106.9224851267887</v>
+        <v>105.1114349078573</v>
       </c>
       <c r="R25">
-        <v>641.534910760732</v>
+        <v>630.668609447144</v>
       </c>
       <c r="S25">
-        <v>0.004707114355722695</v>
+        <v>0.01688582464863418</v>
       </c>
       <c r="T25">
-        <v>0.00540166850348642</v>
+        <v>0.01947085004803042</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H26">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I26">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J26">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="N26">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="O26">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="P26">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="Q26">
-        <v>398.1446974947394</v>
+        <v>130.397241706554</v>
       </c>
       <c r="R26">
-        <v>2388.868184968437</v>
+        <v>782.383450239324</v>
       </c>
       <c r="S26">
-        <v>0.01752776900957768</v>
+        <v>0.02094791075825989</v>
       </c>
       <c r="T26">
-        <v>0.02011406365777252</v>
+        <v>0.02415479478679725</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H27">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I27">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J27">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>71.38371599999999</v>
       </c>
       <c r="O27">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="P27">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="Q27">
-        <v>450.961652764452</v>
+        <v>126.045653759568</v>
       </c>
       <c r="R27">
-        <v>4058.654874880067</v>
+        <v>1134.410883836112</v>
       </c>
       <c r="S27">
-        <v>0.01985296233145773</v>
+        <v>0.02024884170758685</v>
       </c>
       <c r="T27">
-        <v>0.03417352327430534</v>
+        <v>0.03502305946603129</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H28">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I28">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J28">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="N28">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="O28">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="P28">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="Q28">
-        <v>137.5060099012767</v>
+        <v>26.71915747616</v>
       </c>
       <c r="R28">
-        <v>1237.55408911149</v>
+        <v>240.47241728544</v>
       </c>
       <c r="S28">
-        <v>0.006053511685937056</v>
+        <v>0.004292349431792928</v>
       </c>
       <c r="T28">
-        <v>0.01042009847381097</v>
+        <v>0.007424188087871867</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H29">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I29">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J29">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="N29">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="O29">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="P29">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="Q29">
-        <v>3582.877537659054</v>
+        <v>391.30615618455</v>
       </c>
       <c r="R29">
-        <v>21497.26522595432</v>
+        <v>2347.8369371073</v>
       </c>
       <c r="S29">
-        <v>0.1577312225049089</v>
+        <v>0.06286211526895864</v>
       </c>
       <c r="T29">
-        <v>0.1810051152858306</v>
+        <v>0.07248558157939296</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H30">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I30">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J30">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="N30">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="O30">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="P30">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="Q30">
-        <v>293.5699768011467</v>
+        <v>17.914832473756</v>
       </c>
       <c r="R30">
-        <v>2642.12979121032</v>
+        <v>161.233492263804</v>
       </c>
       <c r="S30">
-        <v>0.01292401173215566</v>
+        <v>0.002877962041205927</v>
       </c>
       <c r="T30">
-        <v>0.02224650449401157</v>
+        <v>0.004977817356948869</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H31">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I31">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J31">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="N31">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="O31">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="P31">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="Q31">
-        <v>129.8142731383693</v>
+        <v>33.678274052816</v>
       </c>
       <c r="R31">
-        <v>1168.328458245324</v>
+        <v>303.104466475344</v>
       </c>
       <c r="S31">
-        <v>0.00571489362544035</v>
+        <v>0.005410309835680749</v>
       </c>
       <c r="T31">
-        <v>0.009837224644793099</v>
+        <v>0.009357848999022211</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H32">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I32">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J32">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="N32">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="O32">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="P32">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="Q32">
-        <v>150.2793609416907</v>
+        <v>29.12435241290633</v>
       </c>
       <c r="R32">
-        <v>901.6761656501438</v>
+        <v>174.746114477438</v>
       </c>
       <c r="S32">
-        <v>0.006615840778659894</v>
+        <v>0.004678736507407337</v>
       </c>
       <c r="T32">
-        <v>0.007592035386759049</v>
+        <v>0.005394997214858702</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H33">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I33">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J33">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>71.38371599999999</v>
       </c>
       <c r="O33">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="P33">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="Q33">
-        <v>170.215073597824</v>
+        <v>28.152420957416</v>
       </c>
       <c r="R33">
-        <v>1531.935662380416</v>
+        <v>253.371788616744</v>
       </c>
       <c r="S33">
-        <v>0.007493482924032523</v>
+        <v>0.004522598746161012</v>
       </c>
       <c r="T33">
-        <v>0.01289876587859481</v>
+        <v>0.007822434839245546</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H34">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I34">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J34">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="N34">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="O34">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="P34">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="Q34">
-        <v>51.90152078787555</v>
+        <v>5.967750148142223</v>
       </c>
       <c r="R34">
-        <v>467.1136870908799</v>
+        <v>53.70975133328</v>
       </c>
       <c r="S34">
-        <v>0.002284892586388638</v>
+        <v>0.0009587004747554576</v>
       </c>
       <c r="T34">
-        <v>0.00393305687466675</v>
+        <v>0.001658199724327555</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H35">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I35">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J35">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="N35">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="O35">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="P35">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="Q35">
-        <v>1352.353930818971</v>
+        <v>87.39861552980835</v>
       </c>
       <c r="R35">
-        <v>8114.123584913824</v>
+        <v>524.3916931788501</v>
       </c>
       <c r="S35">
-        <v>0.05953550924510934</v>
+        <v>0.01404031538208428</v>
       </c>
       <c r="T35">
-        <v>0.06832021931597135</v>
+        <v>0.01618972606432521</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H36">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I36">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J36">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="N36">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="O36">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="P36">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="Q36">
-        <v>110.8077258919822</v>
+        <v>4.001295484133111</v>
       </c>
       <c r="R36">
-        <v>997.2695330278401</v>
+        <v>36.011659357198</v>
       </c>
       <c r="S36">
-        <v>0.004878156700647576</v>
+        <v>0.0006427956575007506</v>
       </c>
       <c r="T36">
-        <v>0.008396923278353294</v>
+        <v>0.001111800411216628</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.153525333333334</v>
+        <v>1.183144666666667</v>
       </c>
       <c r="H37">
-        <v>21.460576</v>
+        <v>3.549434</v>
       </c>
       <c r="I37">
-        <v>0.08296496373632467</v>
+        <v>0.02605154480037626</v>
       </c>
       <c r="J37">
-        <v>0.1048540524021472</v>
+        <v>0.03426724304800335</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="N37">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="O37">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="P37">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="Q37">
-        <v>48.99828160740977</v>
+        <v>7.522075692214223</v>
       </c>
       <c r="R37">
-        <v>440.984534466688</v>
+        <v>67.698681229928</v>
       </c>
       <c r="S37">
-        <v>0.002157081501486692</v>
+        <v>0.001208398032467428</v>
       </c>
       <c r="T37">
-        <v>0.003713051667801979</v>
+        <v>0.002090084794029713</v>
       </c>
     </row>
   </sheetData>
